--- a/Codelist Excel Files and Conversion Templates to XML/group-aashtoD145.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/group-aashtoD145.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{9AF3CB2D-F007-364A-9E40-2DE9B553E9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{65B8D86B-37D2-7F48-89C9-DCAB53A64A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="6900" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
